--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_13.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-194513.2819096175</v>
+        <v>-200949.8064852045</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516699</v>
+        <v>2280223.653892732</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791244</v>
+        <v>419463.093379124</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11821066.51247038</v>
+        <v>11820476.53307996</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>18.57602370117569</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>55.84817027056976</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,7 +741,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>135.0820259802211</v>
@@ -750,13 +750,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>69.9893010461515</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
-        <v>187.4140068734885</v>
+        <v>34.37240510231745</v>
       </c>
       <c r="Y3" t="n">
         <v>177.5210747552478</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159.3149947016331</v>
+        <v>159.5236778306505</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>30.80877978468515</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>18.25555411585297</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -975,7 +975,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>149.1476881355087</v>
+        <v>95.13408206764927</v>
       </c>
       <c r="D6" t="n">
         <v>128.7880777047345</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968115</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1035,7 +1035,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>145.9951119230963</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>78.30704509059085</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>98.52870384680992</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>5.652294135270326</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9251726892543274</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>11.61260049965499</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.4114858595509</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>310.5084051007669</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>275.9321225713867</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
         <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>21.50129311405739</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866634</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
         <v>314.4797666215418</v>
@@ -1528,25 +1528,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465754</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442481</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681694</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338899</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456092</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901683</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187162</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>192.241239332652</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>74.33332294620926</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>114.2424397625789</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.4114858595509</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
@@ -1619,13 +1619,13 @@
         <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>9.000274384566863</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372785</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362797</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>182.1168898750154</v>
@@ -1667,10 +1667,10 @@
         <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866634</v>
+        <v>121.4168366513064</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>321.4474895938729</v>
@@ -1768,22 +1768,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465754</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442481</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338899</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>49.29426195803439</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>2.583120945268647</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187162</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>192.241239332652</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665142</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697375</v>
       </c>
       <c r="G17" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135888</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875351</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277547</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059302</v>
       </c>
       <c r="U17" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W17" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658109</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006893</v>
+        <v>255.198109700691</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.9959691888038</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.1430974390862</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092593</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380504</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357231</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596444</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253649</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708418</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369165</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978637</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117995</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.5209712559386</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665142</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697375</v>
       </c>
       <c r="G20" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875351</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277547</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059302</v>
       </c>
       <c r="U20" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W20" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658109</v>
       </c>
       <c r="X20" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.9959691888038</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.1430974390862</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092593</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380504</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357231</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596444</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253649</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708418</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369165</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978637</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117995</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.5209712559386</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="26">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.7098784815727</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820278</v>
+        <v>276.4638267093885</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.8067977227887</v>
       </c>
       <c r="E32" t="n">
-        <v>292.22123233455</v>
+        <v>285.7777698619107</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126118</v>
       </c>
       <c r="G32" t="n">
-        <v>302.694670656806</v>
+        <v>296.2512081841666</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.062300156464</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838894</v>
+        <v>24.17382596574959</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828906</v>
+        <v>52.06849973564971</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434673</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696765</v>
+        <v>140.4152824970371</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034459</v>
+        <v>225.9058214308066</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086852</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435635</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.189344688534</v>
+        <v>279.7458822158947</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431739</v>
+        <v>70.57601873167803</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459979</v>
+        <v>55.72314698196044</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643952</v>
+        <v>41.29686219380017</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931863</v>
+        <v>41.22330424667928</v>
       </c>
       <c r="F34" t="n">
-        <v>49.4162181390859</v>
+        <v>42.97275566644655</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147803</v>
+        <v>53.79159358883868</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805008</v>
+        <v>41.14384575541072</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922201</v>
+        <v>18.98356133658265</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367792</v>
+        <v>9.882059701038571</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920524</v>
+        <v>88.00800320656589</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.581941540738</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404472</v>
+        <v>169.8044840678078</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.5396319546738</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480633</v>
+        <v>167.7171782754239</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221365</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714522</v>
+        <v>108.1010207988128</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H35" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3326,10 +3326,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y35" t="n">
         <v>262.1658326730205</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W37" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="38">
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E41" t="n">
         <v>268.1977203190365</v>
@@ -3755,10 +3755,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E43" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G43" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T43" t="n">
         <v>103.0018919978638</v>
@@ -3958,13 +3958,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E44" t="n">
         <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W44" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E46" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G46" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708475</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369171</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>931.9326166774147</v>
+        <v>1244.679787821407</v>
       </c>
       <c r="C2" t="n">
-        <v>931.9326166774147</v>
+        <v>851.504286324337</v>
       </c>
       <c r="D2" t="n">
-        <v>931.9326166774147</v>
+        <v>466.0631575410048</v>
       </c>
       <c r="E2" t="n">
-        <v>931.9326166774147</v>
+        <v>63.47963265754932</v>
       </c>
       <c r="F2" t="n">
-        <v>919.0785822477965</v>
+        <v>50.62559822793114</v>
       </c>
       <c r="G2" t="n">
-        <v>505.9158267357996</v>
+        <v>41.50324675633837</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022902</v>
+        <v>41.50324675633837</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633837</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035831</v>
+        <v>41.50324675633837</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>400.4856027838002</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.448080049574</v>
+        <v>893.805894502329</v>
       </c>
       <c r="M2" t="n">
-        <v>1040.448080049574</v>
+        <v>893.805894502329</v>
       </c>
       <c r="N2" t="n">
-        <v>1549.897808704472</v>
+        <v>1407.408573112016</v>
       </c>
       <c r="O2" t="n">
-        <v>1989.937409596801</v>
+        <v>1542.129285544448</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596801</v>
+        <v>1890.31677767597</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816918</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816918</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.782969737749</v>
+        <v>1908.648782757969</v>
       </c>
       <c r="T2" t="n">
-        <v>2174.782969737749</v>
+        <v>1908.648782757969</v>
       </c>
       <c r="U2" t="n">
-        <v>2174.782969737749</v>
+        <v>1652.896053192568</v>
       </c>
       <c r="V2" t="n">
-        <v>2118.370676535154</v>
+        <v>1652.896053192568</v>
       </c>
       <c r="W2" t="n">
-        <v>2118.370676535154</v>
+        <v>1652.896053192568</v>
       </c>
       <c r="X2" t="n">
-        <v>1728.91807146821</v>
+        <v>1263.443448125624</v>
       </c>
       <c r="Y2" t="n">
-        <v>1332.427362388812</v>
+        <v>1263.443448125624</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021442</v>
+        <v>710.7802625178497</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622364</v>
+        <v>560.1260320779419</v>
       </c>
       <c r="D3" t="n">
-        <v>375.0702200837168</v>
+        <v>560.1260320779419</v>
       </c>
       <c r="E3" t="n">
-        <v>238.6237291946045</v>
+        <v>423.6795411888296</v>
       </c>
       <c r="F3" t="n">
-        <v>114.1919230777363</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="G3" t="n">
-        <v>43.49565939475499</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>43.49565939475499</v>
+        <v>90.89050074442679</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633837</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144824</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767088</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="L3" t="n">
-        <v>480.0174418653872</v>
+        <v>638.184314874379</v>
       </c>
       <c r="M3" t="n">
-        <v>1018.27622687548</v>
+        <v>638.184314874379</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.27622687548</v>
+        <v>1151.786993484066</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466461</v>
+        <v>1435.17587754563</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182859</v>
+        <v>1840.797246262028</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816918</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635814</v>
+        <v>2051.245294714983</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535682</v>
+        <v>1916.314617614852</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734591</v>
+        <v>1739.33080581376</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413233</v>
+        <v>1529.267662492402</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.3482927843</v>
+        <v>1306.727660863469</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917587</v>
+        <v>1076.610414996756</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675983</v>
+        <v>1041.890813883304</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431056</v>
+        <v>862.576596958811</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1273.335947196197</v>
+        <v>498.4848391173002</v>
       </c>
       <c r="C4" t="n">
-        <v>1273.335947196197</v>
+        <v>498.4848391173002</v>
       </c>
       <c r="D4" t="n">
-        <v>1273.335947196197</v>
+        <v>342.8517260198149</v>
       </c>
       <c r="E4" t="n">
-        <v>1273.335947196197</v>
+        <v>342.8517260198149</v>
       </c>
       <c r="F4" t="n">
-        <v>1273.335947196197</v>
+        <v>342.8517260198149</v>
       </c>
       <c r="G4" t="n">
-        <v>1273.335947196197</v>
+        <v>174.5976721192605</v>
       </c>
       <c r="H4" t="n">
-        <v>1273.335947196197</v>
+        <v>174.5976721192605</v>
       </c>
       <c r="I4" t="n">
-        <v>1273.335947196197</v>
+        <v>41.50324675633837</v>
       </c>
       <c r="J4" t="n">
-        <v>1273.335947196197</v>
+        <v>41.50324675633837</v>
       </c>
       <c r="K4" t="n">
-        <v>1355.170988306138</v>
+        <v>123.3382878662802</v>
       </c>
       <c r="L4" t="n">
-        <v>1519.298628179938</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M4" t="n">
-        <v>1705.590206518202</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N4" t="n">
-        <v>1888.779840549412</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O4" t="n">
-        <v>2051.48460759112</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P4" t="n">
-        <v>2171.360773367698</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q4" t="n">
-        <v>2174.782969737749</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R4" t="n">
-        <v>2174.782969737749</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="S4" t="n">
-        <v>2174.782969737749</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="T4" t="n">
-        <v>2174.782969737749</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="U4" t="n">
-        <v>2174.782969737749</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="V4" t="n">
-        <v>2174.782969737749</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="W4" t="n">
-        <v>1891.452567668927</v>
+        <v>659.6198672290684</v>
       </c>
       <c r="X4" t="n">
-        <v>1657.37224545191</v>
+        <v>659.6198672290684</v>
       </c>
       <c r="Y4" t="n">
-        <v>1434.260184268553</v>
+        <v>659.6198672290684</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1405.065471781379</v>
+        <v>594.9922510621539</v>
       </c>
       <c r="C5" t="n">
-        <v>1011.889970284309</v>
+        <v>201.8167495650845</v>
       </c>
       <c r="D5" t="n">
-        <v>1011.889970284309</v>
+        <v>201.8167495650845</v>
       </c>
       <c r="E5" t="n">
-        <v>1011.889970284309</v>
+        <v>201.8167495650845</v>
       </c>
       <c r="F5" t="n">
-        <v>594.995531814287</v>
+        <v>188.9627151354663</v>
       </c>
       <c r="G5" t="n">
-        <v>181.8327763022902</v>
+        <v>179.8403636638735</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022902</v>
+        <v>179.8403636638735</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633837</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475499</v>
+        <v>155.9415722976117</v>
       </c>
       <c r="K5" t="n">
-        <v>402.4780154222168</v>
+        <v>514.9239283250736</v>
       </c>
       <c r="L5" t="n">
-        <v>895.7983071407457</v>
+        <v>514.9239283250736</v>
       </c>
       <c r="M5" t="n">
-        <v>1434.057092150839</v>
+        <v>1028.526606934761</v>
       </c>
       <c r="N5" t="n">
-        <v>1961.8683757883</v>
+        <v>1542.129285544448</v>
       </c>
       <c r="O5" t="n">
-        <v>2174.782969737749</v>
+        <v>1542.129285544448</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737749</v>
+        <v>1890.31677767597</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816918</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737749</v>
+        <v>2037.16942410244</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.782969737749</v>
+        <v>2037.16942410244</v>
       </c>
       <c r="T5" t="n">
-        <v>2174.782969737749</v>
+        <v>2037.16942410244</v>
       </c>
       <c r="U5" t="n">
-        <v>2143.662990157259</v>
+        <v>1781.416694537039</v>
       </c>
       <c r="V5" t="n">
-        <v>1801.556180860777</v>
+        <v>1781.416694537039</v>
       </c>
       <c r="W5" t="n">
-        <v>1801.556180860777</v>
+        <v>1410.417659505326</v>
       </c>
       <c r="X5" t="n">
-        <v>1801.556180860777</v>
+        <v>1391.97770585295</v>
       </c>
       <c r="Y5" t="n">
-        <v>1405.065471781379</v>
+        <v>995.4869967735508</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>786.3100318480265</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564616</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>560.1260320779419</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888296</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.8829133828434</v>
+        <v>90.89050074442679</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633837</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475499</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>363.2348054569814</v>
+        <v>474.3573750382922</v>
       </c>
       <c r="L6" t="n">
-        <v>846.8008913552947</v>
+        <v>474.3573750382922</v>
       </c>
       <c r="M6" t="n">
-        <v>1385.059676365388</v>
+        <v>987.9600536479794</v>
       </c>
       <c r="N6" t="n">
-        <v>1423.897595591878</v>
+        <v>1501.562732257667</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.417878182859</v>
+        <v>2015.165410867354</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182859</v>
+        <v>2075.162337816918</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816918</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737749</v>
+        <v>2051.245294714983</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737749</v>
+        <v>1916.314617614852</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>1739.33080581376</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1529.267662492402</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863469</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1306.727660863469</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1117.420583213481</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>938.1063662889878</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.49565939475499</v>
+        <v>344.8027900532713</v>
       </c>
       <c r="C7" t="n">
-        <v>43.49565939475499</v>
+        <v>174.5976721192605</v>
       </c>
       <c r="D7" t="n">
-        <v>43.49565939475499</v>
+        <v>174.5976721192605</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475499</v>
+        <v>174.5976721192605</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475499</v>
+        <v>174.5976721192605</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475499</v>
+        <v>174.5976721192605</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475499</v>
+        <v>174.5976721192605</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633837</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633837</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662802</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="T7" t="n">
-        <v>797.4728719129778</v>
+        <v>707.2312174661248</v>
       </c>
       <c r="U7" t="n">
-        <v>512.0340801548787</v>
+        <v>628.1331921220936</v>
       </c>
       <c r="V7" t="n">
-        <v>512.0340801548787</v>
+        <v>628.1331921220936</v>
       </c>
       <c r="W7" t="n">
-        <v>228.7036780860563</v>
+        <v>344.8027900532713</v>
       </c>
       <c r="X7" t="n">
-        <v>228.7036780860563</v>
+        <v>344.8027900532713</v>
       </c>
       <c r="Y7" t="n">
-        <v>228.7036780860563</v>
+        <v>344.8027900532713</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>473.3297600431587</v>
+        <v>1188.563327275425</v>
       </c>
       <c r="C8" t="n">
-        <v>473.3297600431587</v>
+        <v>1188.563327275425</v>
       </c>
       <c r="D8" t="n">
-        <v>473.3297600431587</v>
+        <v>803.1221984920926</v>
       </c>
       <c r="E8" t="n">
-        <v>473.3297600431587</v>
+        <v>803.1221984920926</v>
       </c>
       <c r="F8" t="n">
-        <v>460.4757256135405</v>
+        <v>790.2681640624744</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>377.1054085504775</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>53.02235811696818</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>538.1002202902207</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>1031.420512008749</v>
       </c>
       <c r="M8" t="n">
-        <v>1445.616517892115</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="N8" t="n">
-        <v>1973.427801529577</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
         <v>2365.64850507718</v>
@@ -4835,19 +4835,19 @@
         <v>2327.655591362702</v>
       </c>
       <c r="U8" t="n">
-        <v>2071.902861797301</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="V8" t="n">
-        <v>1729.796052500819</v>
+        <v>1985.548782066221</v>
       </c>
       <c r="W8" t="n">
-        <v>1358.797017469107</v>
+        <v>1985.548782066221</v>
       </c>
       <c r="X8" t="n">
-        <v>969.3444124021636</v>
+        <v>1985.548782066221</v>
       </c>
       <c r="Y8" t="n">
-        <v>572.8537033227647</v>
+        <v>1589.058072986822</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>367.0521161637701</v>
+        <v>476.7213176107721</v>
       </c>
       <c r="L9" t="n">
-        <v>850.6182020620834</v>
+        <v>960.2874035090854</v>
       </c>
       <c r="M9" t="n">
-        <v>1436.116207068686</v>
+        <v>1545.785408515688</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769802</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360783</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>521.8973297743551</v>
+        <v>528.7100132738371</v>
       </c>
       <c r="C10" t="n">
-        <v>521.8973297743551</v>
+        <v>358.5048953398264</v>
       </c>
       <c r="D10" t="n">
-        <v>366.2642166768698</v>
+        <v>202.8717822423411</v>
       </c>
       <c r="E10" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4987,25 +4987,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>745.9439088256454</v>
+        <v>937.0300931484951</v>
       </c>
       <c r="Y10" t="n">
-        <v>522.8318476422887</v>
+        <v>713.9180319651384</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1651.747936481893</v>
+        <v>1383.607851381761</v>
       </c>
       <c r="C11" t="n">
-        <v>1330.368710131017</v>
+        <v>1062.228625030885</v>
       </c>
       <c r="D11" t="n">
-        <v>1016.723856493879</v>
+        <v>748.5837713937469</v>
       </c>
       <c r="E11" t="n">
-        <v>685.9366067566173</v>
+        <v>748.5837713937469</v>
       </c>
       <c r="F11" t="n">
-        <v>340.8384434327889</v>
+        <v>403.4856080699185</v>
       </c>
       <c r="G11" t="n">
         <v>62.11912770411553</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>3105.956385205776</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2921.999930786569</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V11" t="n">
-        <v>2921.999930786569</v>
+        <v>2653.859845686437</v>
       </c>
       <c r="W11" t="n">
-        <v>2622.79717090105</v>
+        <v>2354.657085800918</v>
       </c>
       <c r="X11" t="n">
-        <v>2305.140840980301</v>
+        <v>2037.000755880169</v>
       </c>
       <c r="Y11" t="n">
-        <v>1980.446407047096</v>
+        <v>1712.306321946964</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5121,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L12" t="n">
-        <v>62.11912770411553</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M12" t="n">
-        <v>689.8907773307967</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>472.8495292029532</v>
+        <v>497.3392809709728</v>
       </c>
       <c r="C13" t="n">
-        <v>472.8495292029532</v>
+        <v>398.930438183156</v>
       </c>
       <c r="D13" t="n">
-        <v>472.8495292029532</v>
+        <v>315.0936002318645</v>
       </c>
       <c r="E13" t="n">
-        <v>389.0869922083497</v>
+        <v>231.3310632372609</v>
       </c>
       <c r="F13" t="n">
-        <v>303.5573325675165</v>
+        <v>145.8014035964277</v>
       </c>
       <c r="G13" t="n">
-        <v>207.0995538131559</v>
+        <v>145.8014035964277</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774628</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
         <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118224</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138162</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5218,31 +5218,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593279</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1444.627927593279</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T13" t="n">
-        <v>1280.705150907707</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="U13" t="n">
-        <v>1067.062634295801</v>
+        <v>1099.965602310117</v>
       </c>
       <c r="V13" t="n">
-        <v>872.8795642628195</v>
+        <v>1099.965602310117</v>
       </c>
       <c r="W13" t="n">
-        <v>661.345437340191</v>
+        <v>888.4314753874879</v>
       </c>
       <c r="X13" t="n">
-        <v>586.2612727480606</v>
+        <v>726.1474283166649</v>
       </c>
       <c r="Y13" t="n">
-        <v>586.2612727480606</v>
+        <v>610.7510245160802</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1135.015795124461</v>
+        <v>1780.935942880364</v>
       </c>
       <c r="C14" t="n">
-        <v>813.6365687735852</v>
+        <v>1459.556716529488</v>
       </c>
       <c r="D14" t="n">
-        <v>813.6365687735852</v>
+        <v>1145.91186289235</v>
       </c>
       <c r="E14" t="n">
-        <v>482.8493190363233</v>
+        <v>815.1246131550881</v>
       </c>
       <c r="F14" t="n">
-        <v>137.7511557124949</v>
+        <v>470.0264498312598</v>
       </c>
       <c r="G14" t="n">
-        <v>137.7511557124949</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="H14" t="n">
         <v>128.6599694654568</v>
@@ -5306,22 +5306,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>2859.534777998631</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="U14" t="n">
-        <v>2675.578323579424</v>
+        <v>2827.282650873813</v>
       </c>
       <c r="V14" t="n">
-        <v>2405.267789429137</v>
+        <v>2556.972116723525</v>
       </c>
       <c r="W14" t="n">
-        <v>2106.065029543618</v>
+        <v>2434.328847378772</v>
       </c>
       <c r="X14" t="n">
-        <v>1788.408699622869</v>
+        <v>2434.328847378772</v>
       </c>
       <c r="Y14" t="n">
-        <v>1463.714265689664</v>
+        <v>2109.634413445567</v>
       </c>
     </row>
     <row r="15">
@@ -5361,16 +5361,16 @@
         <v>175.2341099238429</v>
       </c>
       <c r="L15" t="n">
-        <v>658.8001958221562</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M15" t="n">
-        <v>1084.690231197904</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N15" t="n">
-        <v>1740.468202408463</v>
+        <v>1458.783730761083</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>1975.304013352064</v>
       </c>
       <c r="P15" t="n">
         <v>2146.089571124861</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>315.0936002318644</v>
+        <v>448.7226219791498</v>
       </c>
       <c r="C16" t="n">
-        <v>315.0936002318644</v>
+        <v>448.7226219791498</v>
       </c>
       <c r="D16" t="n">
-        <v>315.0936002318644</v>
+        <v>364.8857840278583</v>
       </c>
       <c r="E16" t="n">
-        <v>231.3310632372608</v>
+        <v>281.1232470332547</v>
       </c>
       <c r="F16" t="n">
-        <v>145.8014035964277</v>
+        <v>195.5935873924215</v>
       </c>
       <c r="G16" t="n">
-        <v>145.8014035964277</v>
+        <v>195.5935873924215</v>
       </c>
       <c r="H16" t="n">
-        <v>62.11912770411553</v>
+        <v>111.9113115001094</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774628</v>
       </c>
       <c r="K16" t="n">
         <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118224</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138162</v>
+        <v>999.6269248138161</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5458,28 +5458,28 @@
         <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1494.123428738479</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="S16" t="n">
-        <v>1363.103620067222</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="T16" t="n">
-        <v>1199.18084338165</v>
+        <v>1332.809865128936</v>
       </c>
       <c r="U16" t="n">
-        <v>985.538326769745</v>
+        <v>1119.16734851703</v>
       </c>
       <c r="V16" t="n">
-        <v>791.3552567367631</v>
+        <v>924.9842784840484</v>
       </c>
       <c r="W16" t="n">
-        <v>579.8211298141346</v>
+        <v>713.4501515614199</v>
       </c>
       <c r="X16" t="n">
-        <v>579.8211298141346</v>
+        <v>713.4501515614199</v>
       </c>
       <c r="Y16" t="n">
-        <v>428.5053437769718</v>
+        <v>562.1343655242572</v>
       </c>
     </row>
     <row r="17">
@@ -5492,22 +5492,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975445</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924214</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5549,13 +5549,13 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y17" t="n">
         <v>1882.877496443165</v>
@@ -5592,22 +5592,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>346.0196676966397</v>
       </c>
       <c r="L18" t="n">
-        <v>568.1699486069232</v>
+        <v>346.0196676966397</v>
       </c>
       <c r="M18" t="n">
-        <v>568.1699486069232</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P18" t="n">
         <v>2146.089571124861</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885588</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369566</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218799</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634909</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072654</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462908</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>407.3644357128483</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>593.6560140511123</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>776.8456480823215</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>939.5504151240295</v>
+        <v>969.3241577214671</v>
       </c>
       <c r="P19" t="n">
-        <v>1059.426580900608</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918796</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.258445116189</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194218</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.302171233008</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983996</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974515</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D20" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099313</v>
       </c>
       <c r="G20" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924214</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5771,31 +5771,31 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5841,13 +5841,13 @@
         <v>1493.196009291336</v>
       </c>
       <c r="N21" t="n">
-        <v>1629.56928853388</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="O21" t="n">
-        <v>2146.089571124861</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885588</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369566</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218799</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634909</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072654</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462908</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>67.69877031229927</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>149.5338114222411</v>
+        <v>270.9691711012514</v>
       </c>
       <c r="L22" t="n">
-        <v>313.6614512960409</v>
+        <v>435.0968109750512</v>
       </c>
       <c r="M22" t="n">
-        <v>499.953029634305</v>
+        <v>621.3883893133152</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879427</v>
+        <v>804.5780233445244</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296507</v>
+        <v>967.2827903862324</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162811</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918796</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.258445116189</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194218</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.302171233008</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983996</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974515</v>
       </c>
     </row>
     <row r="23">
@@ -5969,28 +5969,28 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924224</v>
+        <v>68.7795079292424</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L23" t="n">
         <v>1059.071548358934</v>
@@ -6011,10 +6011,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6032,7 +6032,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6148,19 +6148,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222408</v>
       </c>
       <c r="L25" t="n">
-        <v>313.6614512960409</v>
+        <v>442.7178209184691</v>
       </c>
       <c r="M25" t="n">
-        <v>499.953029634305</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N25" t="n">
-        <v>683.1426636655142</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P25" t="n">
         <v>1094.779966106229</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="26">
@@ -6224,19 +6224,19 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>576.9969878838402</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1100.286794884791</v>
+        <v>1286.389518343938</v>
       </c>
       <c r="M26" t="n">
-        <v>1739.339056658945</v>
+        <v>1925.441780118092</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.20170202598</v>
+        <v>2453.253063755554</v>
       </c>
       <c r="O26" t="n">
         <v>2893.292664647882</v>
@@ -6251,10 +6251,10 @@
         <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
         <v>3307.298104174144</v>
@@ -6303,19 +6303,19 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M27" t="n">
-        <v>1095.935962441339</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N27" t="n">
-        <v>1751.713933651898</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O27" t="n">
         <v>1751.713933651898</v>
@@ -6364,7 +6364,7 @@
         <v>429.0656615517126</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
         <v>307.7550988878065</v>
@@ -6376,13 +6376,13 @@
         <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
         <v>311.5288809192011</v>
@@ -6391,7 +6391,7 @@
         <v>568.7078825225742</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6424,10 +6424,10 @@
         <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988161</v>
+        <v>722.7688154988163</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026478</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,22 +6461,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
         <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1163.368641331942</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1802.420903106096</v>
+        <v>1832.390418388518</v>
       </c>
       <c r="N29" t="n">
-        <v>2423.283548473132</v>
+        <v>2453.253063755554</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647883</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P29" t="n">
         <v>3334.531518508978</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6540,16 +6540,16 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M30" t="n">
-        <v>989.7850731278173</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N30" t="n">
         <v>1235.193651060917</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985348</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517124</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796859</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192008</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225739</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6643,7 +6643,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648016</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
@@ -6655,16 +6655,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210278</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286445</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988159</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026476</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.798875918588</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303044</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401237</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463668</v>
+        <v>904.3560533993073</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057091</v>
+        <v>601.3807258108104</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230769</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189323</v>
+        <v>91.97314162835471</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234502</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>212.2049085111731</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770516</v>
+        <v>682.8393851136182</v>
       </c>
       <c r="L32" t="n">
-        <v>1066.49996889558</v>
+        <v>1176.159676832147</v>
       </c>
       <c r="M32" t="n">
-        <v>1697.911051786171</v>
+        <v>1833.812697451711</v>
       </c>
       <c r="N32" t="n">
-        <v>2225.722335423633</v>
+        <v>2361.623981089173</v>
       </c>
       <c r="O32" t="n">
-        <v>2771.035029043031</v>
+        <v>2801.663581981501</v>
       </c>
       <c r="P32" t="n">
-        <v>3119.222521174553</v>
+        <v>3192.911219976302</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042572</v>
+        <v>3377.756780117251</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038082</v>
+        <v>3377.756780117251</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908497</v>
+        <v>3325.162335939827</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397278</v>
+        <v>3215.58084438077</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.747225696894</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.559527281937</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291776</v>
+        <v>2588.47960313175</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946333</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004163</v>
+        <v>2030.374510748459</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423759</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024681</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239485</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898325</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904334</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234502</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>67.55513560234502</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>387.2942816645715</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>870.8603675628847</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.52557902309</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476045</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375914</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253464</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624531</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757818</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965132</v>
+        <v>365.6713676929697</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918669</v>
+        <v>309.3853606404845</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237462</v>
+        <v>267.6713584245247</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123132</v>
+        <v>226.0316571652527</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546507</v>
+        <v>182.6248332597511</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834607</v>
+        <v>128.2898902407222</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431922</v>
+        <v>86.73045008374164</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234502</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234502</v>
       </c>
       <c r="K34" t="n">
-        <v>151.3825893507035</v>
+        <v>225.4160927170919</v>
       </c>
       <c r="L34" t="n">
-        <v>409.5369032805523</v>
+        <v>389.5437325908916</v>
       </c>
       <c r="M34" t="n">
-        <v>701.1015743458865</v>
+        <v>575.8353109291556</v>
       </c>
       <c r="N34" t="n">
-        <v>989.5643011041659</v>
+        <v>870.677065535348</v>
       </c>
       <c r="O34" t="n">
-        <v>1257.542160872944</v>
+        <v>1145.033953152039</v>
       </c>
       <c r="P34" t="n">
-        <v>1482.691419376593</v>
+        <v>1264.910118928618</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746644</v>
+        <v>1379.984435873652</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308585</v>
+        <v>1370.002557387754</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420499</v>
+        <v>1281.105584451829</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518098</v>
+        <v>1159.305643501589</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689364</v>
+        <v>987.7859626250153</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395522</v>
+        <v>835.725728327365</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000944</v>
+        <v>666.3144371400681</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012442</v>
+        <v>546.1532258045767</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584499</v>
+        <v>436.9602755027455</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C35" t="n">
         <v>1352.560722599516</v>
@@ -6920,49 +6920,49 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129437</v>
       </c>
       <c r="K35" t="n">
         <v>565.7512566404055</v>
       </c>
       <c r="L35" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M35" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N35" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O35" t="n">
         <v>2572.923332933306</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064829</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6971,16 +6971,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="36">
@@ -7008,10 +7008,10 @@
         <v>199.803798091603</v>
       </c>
       <c r="H36" t="n">
-        <v>111.5063816922039</v>
+        <v>111.506381692204</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J36" t="n">
         <v>175.2341099238429</v>
@@ -7023,10 +7023,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O36" t="n">
         <v>1740.468202408463</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.3386307407268</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462922</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222417</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>442.71782091847</v>
       </c>
       <c r="M37" t="n">
-        <v>623.4297566485498</v>
+        <v>629.009399256734</v>
       </c>
       <c r="N37" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879432</v>
       </c>
       <c r="O37" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296512</v>
       </c>
       <c r="P37" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q37" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S37" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="38">
@@ -7211,7 +7211,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
@@ -7260,10 +7260,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O39" t="n">
         <v>1740.468202408463</v>
@@ -7330,28 +7330,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>243.2367958390485</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L40" t="n">
-        <v>407.3644357128483</v>
+        <v>442.7178209184691</v>
       </c>
       <c r="M40" t="n">
-        <v>593.6560140511123</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N40" t="n">
-        <v>776.8456480823215</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O40" t="n">
-        <v>939.5504151240295</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P40" t="n">
-        <v>1059.426580900608</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q40" t="n">
-        <v>1090.581152532862</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7403,7 +7403,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7445,7 +7445,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
         <v>2405.467337224691</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7576,19 +7576,19 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261212</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N43" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O43" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P43" t="n">
-        <v>960.1439538756169</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q43" t="n">
-        <v>1092.622519868097</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R43" t="n">
         <v>1098.20216247628</v>
@@ -7597,22 +7597,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="44">
@@ -7637,10 +7637,10 @@
         <v>542.6718405099309</v>
       </c>
       <c r="G44" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H44" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7679,16 +7679,16 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y44" t="n">
         <v>1882.877496443165</v>
@@ -7734,10 +7734,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1223.947919817482</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O45" t="n">
         <v>1740.468202408463</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7813,43 +7813,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N46" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O46" t="n">
-        <v>969.324157721467</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P46" t="n">
-        <v>1089.200323498046</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q46" t="n">
-        <v>1092.622519868097</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984002</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
@@ -7988,13 +7988,13 @@
         <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>663.7141768477826</v>
+        <v>667.9090757920137</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>285.6453651336235</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8058,19 +8058,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>93.76504805760348</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837492</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>604.1626973083962</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>378.9389569308728</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>233.2741061658546</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321646</v>
+        <v>668.5156360519568</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920137</v>
       </c>
       <c r="O5" t="n">
-        <v>364.629083837681</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,28 +8292,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837492</v>
+        <v>611.1777065035415</v>
       </c>
       <c r="N6" t="n">
-        <v>124.6023342950658</v>
+        <v>604.1626973083962</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431185</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>147.6863213340263</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>492.6922186134283</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8462,13 +8462,13 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O8" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
@@ -8529,10 +8529,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>409.0851831005062</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
@@ -8541,16 +8541,16 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>92.83741255226374</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8699,7 +8699,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N11" t="n">
-        <v>682.2612020826954</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O11" t="n">
         <v>594.0482827698827</v>
@@ -8769,16 +8769,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>691.2645480167034</v>
       </c>
       <c r="N12" t="n">
-        <v>624.8237719316268</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8787,7 +8787,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8945,7 +8945,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9009,19 +9009,19 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
-        <v>522.5790769743099</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>259.5940292362812</v>
       </c>
       <c r="Q15" t="n">
         <v>327.7205688679246</v>
@@ -9240,16 +9240,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5657697396227</v>
+        <v>262.1075997502998</v>
       </c>
       <c r="L18" t="n">
-        <v>278.2539578070002</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
         <v>747.7741039759435</v>
@@ -9258,7 +9258,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
         <v>327.7205688679246</v>
@@ -9416,7 +9416,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P20" t="n">
-        <v>502.0059847475136</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
         <v>331.2113854294513</v>
@@ -9489,16 +9489,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>223.122899967847</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>579.1898666384017</v>
       </c>
       <c r="P21" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9951,7 +9951,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9960,13 +9960,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>199.6102425680203</v>
+        <v>454.5321323046924</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10197,10 +10197,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>454.5321323046924</v>
       </c>
       <c r="N30" t="n">
-        <v>333.2595653118427</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10425,7 +10425,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
@@ -10434,7 +10434,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>340.2745745069883</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N33" t="n">
         <v>85.37211285416666</v>
@@ -10671,13 +10671,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
@@ -10908,13 +10908,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
@@ -11382,13 +11382,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>340.2745745069883</v>
+        <v>199.6102425680207</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>62.02069299075822</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372785</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362797</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>246.1061356947274</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.4247543599387</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177843</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>86.32788365390549</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>35.56018841421226</v>
       </c>
     </row>
     <row r="14">
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>310.5084051007669</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,10 +23507,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>240.7636331498754</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,10 +23555,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>174.7938956353571</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.4247543599387</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177843</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681694</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456092</v>
+        <v>11.39090675652655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>49.00054613374819</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1038763.116697061</v>
+        <v>1038462.342890181</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1038763.116697061</v>
+        <v>1038462.342890181</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>921250.7265112395</v>
+        <v>921250.7265112397</v>
       </c>
     </row>
     <row r="7">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>234431.8315213637</v>
+        <v>234431.8315213638</v>
       </c>
       <c r="C2" t="n">
         <v>234431.8315213638</v>
@@ -26320,10 +26320,10 @@
         <v>234431.8315213638</v>
       </c>
       <c r="E2" t="n">
-        <v>207166.7304517205</v>
+        <v>207166.7304517206</v>
       </c>
       <c r="F2" t="n">
-        <v>207166.7304517205</v>
+        <v>207166.7304517206</v>
       </c>
       <c r="G2" t="n">
         <v>234431.8315213638</v>
@@ -26332,10 +26332,10 @@
         <v>234431.8315213638</v>
       </c>
       <c r="I2" t="n">
-        <v>234431.8315213637</v>
+        <v>234431.8315213638</v>
       </c>
       <c r="J2" t="n">
-        <v>234431.831521364</v>
+        <v>234431.8315213643</v>
       </c>
       <c r="K2" t="n">
         <v>234431.831521364</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918559</v>
+        <v>173858.6570340548</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062187</v>
+        <v>22558.42953401379</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740446</v>
+        <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668193</v>
+        <v>47425.32553668202</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945026</v>
+        <v>200285.8640399291</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728547</v>
+        <v>62456.24177539704</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962298</v>
+        <v>43252.52447081125</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277123</v>
+        <v>27767.69404277117</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,37 +26415,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178075.8047892385</v>
+        <v>184487.2052585818</v>
       </c>
       <c r="C4" t="n">
-        <v>178075.8047892385</v>
+        <v>184487.2052585818</v>
       </c>
       <c r="D4" t="n">
         <v>165792.0503172815</v>
       </c>
       <c r="E4" t="n">
-        <v>86988.78851589427</v>
+        <v>86988.78851589425</v>
       </c>
       <c r="F4" t="n">
-        <v>86988.7885158943</v>
+        <v>86988.78851589424</v>
       </c>
       <c r="G4" t="n">
-        <v>134747.7050074764</v>
+        <v>134747.7050074765</v>
       </c>
       <c r="H4" t="n">
-        <v>134747.7050074764</v>
+        <v>134747.7050074765</v>
       </c>
       <c r="I4" t="n">
-        <v>134747.7050074764</v>
+        <v>134747.7050074765</v>
       </c>
       <c r="J4" t="n">
         <v>135498.1974718595</v>
       </c>
       <c r="K4" t="n">
-        <v>135498.1974718596</v>
+        <v>135498.1974718595</v>
       </c>
       <c r="L4" t="n">
-        <v>135242.6235713762</v>
+        <v>135109.2289623214</v>
       </c>
       <c r="M4" t="n">
         <v>134747.7050074764</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481716</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481716</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,13 +26482,13 @@
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="H5" t="n">
         <v>58169.76931551967</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
@@ -26497,10 +26497,10 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.19813315419</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551968</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
@@ -26509,7 +26509,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-192533.2226997445</v>
+        <v>-189084.0983060899</v>
       </c>
       <c r="C6" t="n">
-        <v>-10328.27440788856</v>
+        <v>-15225.44127203522</v>
       </c>
       <c r="D6" t="n">
-        <v>-15767.81638371272</v>
+        <v>-23504.10560710463</v>
       </c>
       <c r="E6" t="n">
-        <v>-45130.63923805885</v>
+        <v>-45340.37078474828</v>
       </c>
       <c r="F6" t="n">
-        <v>66991.92223598572</v>
+        <v>66782.19068929627</v>
       </c>
       <c r="G6" t="n">
-        <v>-5910.968338314211</v>
+        <v>-5910.968338314393</v>
       </c>
       <c r="H6" t="n">
-        <v>41514.35719836767</v>
+        <v>41514.3571983677</v>
       </c>
       <c r="I6" t="n">
-        <v>41514.35719836762</v>
+        <v>41514.35719836771</v>
       </c>
       <c r="J6" t="n">
-        <v>-171527.5603989176</v>
+        <v>-165011.2752443438</v>
       </c>
       <c r="K6" t="n">
-        <v>35274.58879558491</v>
+        <v>35274.58879558494</v>
       </c>
       <c r="L6" t="n">
-        <v>-19908.00013903658</v>
+        <v>-23956.83734950903</v>
       </c>
       <c r="M6" t="n">
-        <v>-686.4722612552287</v>
+        <v>-1738.167272443548</v>
       </c>
       <c r="N6" t="n">
-        <v>41514.35719836771</v>
+        <v>41514.35719836765</v>
       </c>
       <c r="O6" t="n">
-        <v>13746.66315559644</v>
+        <v>13746.66315559653</v>
       </c>
       <c r="P6" t="n">
-        <v>41514.35719836768</v>
+        <v>41514.3571983678</v>
       </c>
     </row>
   </sheetData>
@@ -26692,16 +26692,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I2" t="n">
         <v>130.3599693155844</v>
@@ -26713,7 +26713,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26725,7 +26725,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="P2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542296</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542296</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,22 +26805,22 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
         <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095205</v>
+        <v>844.4391950293127</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014443</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085241</v>
+        <v>59.28165692085253</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346404</v>
+        <v>34.70961755346399</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660683</v>
+        <v>78.0703022192463</v>
       </c>
       <c r="M2" t="n">
-        <v>24.0235120155135</v>
+        <v>17.58004954287412</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346404</v>
+        <v>34.70961755346396</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542296</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485777</v>
+        <v>72.62154181506548</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773713</v>
+        <v>659.3622249971637</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407254</v>
+        <v>117.1268713042806</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085241</v>
+        <v>59.28165692085253</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346404</v>
+        <v>34.70961755346399</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542296</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485777</v>
+        <v>72.62154181506548</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>377.9137745531072</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>282.837570932947</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27461,7 +27461,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27470,13 +27470,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>48.86991870270271</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27521,7 +27521,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>153.041601771171</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24.04094380275521</v>
+        <v>23.83226067373772</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
@@ -27549,13 +27549,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,10 +27625,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
@@ -27670,16 +27670,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>222.3864224850622</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>367.3025249004207</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>54.01360606785943</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>27.9184993862691</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
@@ -27792,7 +27792,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -27825,10 +27825,10 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>87.36674939035188</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>204.2773587499272</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>297.961094407473</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>131.3014516031895</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,16 +27907,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>182.4307658151339</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
@@ -28026,13 +28026,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
@@ -28074,7 +28074,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>220.1269184951917</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="18">
@@ -28719,31 +28719,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J19" t="n">
-        <v>130.3599693155844</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28758,37 +28758,37 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>5.636002634527685</v>
       </c>
       <c r="Q19" t="n">
-        <v>35.71049010668797</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="21">
@@ -28956,34 +28956,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J22" t="n">
-        <v>35.7104901066881</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>128.2979821082768</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -28992,7 +28992,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="23">
@@ -29220,10 +29220,10 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>5.636002634528666</v>
       </c>
       <c r="L25" t="n">
-        <v>5.636002634529035</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -29232,7 +29232,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -29296,10 +29296,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
         <v>30.27223765901215</v>
@@ -29308,10 +29308,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>93.99127447431646</v>
@@ -29457,7 +29457,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431636</v>
       </c>
       <c r="L28" t="n">
         <v>93.99127447431646</v>
@@ -29533,22 +29533,22 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
       <c r="M29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="N29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>30.27223765901266</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>93.99127447431646</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>86.27291196566659</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>43.49509683159528</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000709</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>76.79385455030805</v>
       </c>
       <c r="L34" t="n">
-        <v>94.97643844045359</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
     </row>
     <row r="35">
@@ -30013,7 +30013,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -30168,13 +30168,13 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>5.636002634529603</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30402,13 +30402,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>5.636002634528666</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30423,10 +30423,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>28.01250026485194</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30648,10 +30648,10 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -30660,10 +30660,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>128.2979821082772</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J46" t="n">
         <v>30.07448747215907</v>
@@ -30885,43 +30885,43 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>5.636002634529923</v>
       </c>
       <c r="R46" t="n">
-        <v>128.2979821082772</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
   </sheetData>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
@@ -34708,13 +34708,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>514.5956855099985</v>
+        <v>518.7905844542296</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>136.0815277095271</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34778,19 +34778,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3.704701200685251</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344373</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>518.7905844542296</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>286.251398041984</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>115.5942682235085</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542296</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542296</v>
       </c>
       <c r="O5" t="n">
-        <v>215.0652464135846</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542296</v>
       </c>
       <c r="N6" t="n">
-        <v>39.23022144089915</v>
+        <v>518.7905844542296</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542296</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>60.60295651471169</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>349.6338154341909</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35182,13 +35182,13 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>319.4882477671728</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
@@ -35261,16 +35261,16 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>7.465299698097082</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,13 +35413,13 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L11" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M11" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N11" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O11" t="n">
         <v>444.4844453457863</v>
@@ -35489,16 +35489,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="N12" t="n">
-        <v>539.4516590774601</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35507,7 +35507,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.0038249225729</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L13" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
         <v>235.4265619318108</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488445</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35665,7 +35665,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35729,19 +35729,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>430.1919549249981</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>172.5106644169666</v>
       </c>
       <c r="Q15" t="n">
         <v>236.7324157120106</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.0038249225729</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
         <v>235.4265619318108</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488445</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>322.9688344062893</v>
+        <v>172.5106644169664</v>
       </c>
       <c r="L18" t="n">
-        <v>188.193610950082</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
         <v>662.4019911217769</v>
@@ -35978,7 +35978,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>236.7324157120106</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
@@ -36054,13 +36054,13 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P19" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724859</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.16725411684045</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36136,7 +36136,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065884</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
         <v>186.7126870110591</v>
@@ -36209,16 +36209,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>137.7507871136803</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>486.5023077495127</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.63600263452903</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>210.9596397950867</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
@@ -36288,7 +36288,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
         <v>164.3482495370789</v>
@@ -36300,7 +36300,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>7.697989841835664</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36516,10 +36516,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133864</v>
       </c>
       <c r="L25" t="n">
-        <v>171.421497456549</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
@@ -36528,7 +36528,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
         <v>528.5755626272231</v>
@@ -36604,10 +36604,10 @@
         <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
         <v>445.6958119809042</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36680,13 +36680,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>107.2231205187084</v>
+        <v>362.1450102553805</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36753,7 +36753,7 @@
         <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6529321611264</v>
+        <v>176.6529321611263</v>
       </c>
       <c r="L28" t="n">
         <v>259.7767692963365</v>
@@ -36829,22 +36829,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>645.507335125408</v>
+        <v>581.7882983101038</v>
       </c>
       <c r="N29" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>474.756683004799</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
         <v>445.6958119809042</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36917,10 +36917,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>362.1450102553805</v>
       </c>
       <c r="N30" t="n">
-        <v>247.8874524576761</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -37069,28 +37069,28 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>475.3883602044899</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>637.7889726167581</v>
+        <v>664.2959804238017</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>550.8209026458571</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>395.199634338183</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.04914431113</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.7234727227376</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
@@ -37154,7 +37154,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>247.8874524576764</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>82.66165768680997</v>
+        <v>159.455512237118</v>
       </c>
       <c r="L34" t="n">
-        <v>260.7619332624736</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528628</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750297</v>
+        <v>297.819954147669</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371497</v>
+        <v>277.1281693097891</v>
       </c>
       <c r="P34" t="n">
-        <v>227.423493438029</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.456764010152483</v>
+        <v>116.2366837828627</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L35" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682118</v>
       </c>
       <c r="M35" t="n">
         <v>551.5160606510915</v>
@@ -37391,13 +37391,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O36" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>409.7185542589873</v>
@@ -37464,13 +37464,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133958</v>
       </c>
       <c r="L37" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M37" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37628,13 +37628,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>409.7185542589873</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L40" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565487</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
@@ -37719,10 +37719,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.46926427500442</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>7.697989841835607</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37944,10 +37944,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>188.1733114527919</v>
+        <v>193.809314087321</v>
       </c>
       <c r="N43" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O43" t="n">
         <v>164.3482495370789</v>
@@ -37956,10 +37956,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>5.636002634528405</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38102,13 +38102,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>247.8874524576764</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
@@ -38181,22 +38181,22 @@
         <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683762</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>294.7082188526633</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644682406</v>
       </c>
       <c r="R46" t="n">
-        <v>5.636002634528405</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
